--- a/docs/Internship_artifacts/Defect_Tracker Template_v0.1.xlsx
+++ b/docs/Internship_artifacts/Defect_Tracker Template_v0.1.xlsx
@@ -1,201 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aaryam\infosysp\knowledge-seeker-chatbot\docs\Internship_artifacts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8724"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Defects" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Defects" sheetId="1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
-  <si>
-    <t>Sl No</t>
-  </si>
-  <si>
-    <t>Submitted By</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">Sl No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submitted By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submitted Date</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Assigned To</t>
-  </si>
-  <si>
-    <t>Type Of Defect</t>
-  </si>
-  <si>
-    <t>Action Taken</t>
+    <t xml:space="preserve">Detected Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type Of Defect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action Taken Date</t>
+  </si>
+  <si>
+    <t>Status(Open/Closed)</t>
   </si>
   <si>
     <t>Remarks</t>
   </si>
   <si>
-    <t>Submitted Date</t>
-  </si>
-  <si>
-    <t>Action Taken Date</t>
+    <t>Aarya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybride search not working</t>
   </si>
   <si>
     <t>Logical</t>
   </si>
   <si>
-    <t>User Interface</t>
+    <t xml:space="preserve">Fix logical errors</t>
+  </si>
+  <si>
+    <t>Jan-19-2026</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM25 retriver error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import right modules, and correct code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsyncQdrantClient added for resolving confilect</t>
   </si>
   <si>
     <t>Maintainability</t>
   </si>
   <si>
+    <t xml:space="preserve">Add Async Qdrant client, for realiable searches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replace indeing function with new once.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docstore init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add docstore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add context memory, ability to handle follow-up question  and multi-turn conversation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add new modules and structure for memory</t>
+  </si>
+  <si>
+    <t>Jan-27-2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replace query engine with chat engin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add new module for compatablity and fast security </t>
+  </si>
+  <si>
+    <t>Jan-27-2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Interface</t>
+  </si>
+  <si>
     <t>Standards</t>
   </si>
   <si>
-    <t>Detected Sprint</t>
-  </si>
-  <si>
     <t>Others</t>
-  </si>
-  <si>
-    <t>Status(Open/Closed)</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Hybride search not working</t>
-  </si>
-  <si>
-    <t>File upload fails for large PDF files</t>
-  </si>
-  <si>
-    <t>Added file size validation and optimized upload logic</t>
-  </si>
-  <si>
-    <t>Aarya</t>
-  </si>
-  <si>
-    <t>AsyncQdrantClient added for resolving confilect</t>
-  </si>
-  <si>
-    <t>index validation</t>
-  </si>
-  <si>
-    <t>Add Async Qdrant client, for realiable searches</t>
-  </si>
-  <si>
-    <t>replace indeing function with new once.</t>
-  </si>
-  <si>
-    <t>Docstore init</t>
-  </si>
-  <si>
-    <t>add docstore</t>
-  </si>
-  <si>
-    <t>BM25 retriver error</t>
-  </si>
-  <si>
-    <t>Fix logical errors</t>
-  </si>
-  <si>
-    <t>replace queryengine with chatengin</t>
-  </si>
-  <si>
-    <t>add new modules and structure for memory</t>
-  </si>
-  <si>
-    <t>add context memory, ability to handle follow-up question  and multi-turn conversation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add new module for compatablity and fast security </t>
-  </si>
-  <si>
-    <t>Jan-27-2026</t>
-  </si>
-  <si>
-    <t>Jan-19-2026</t>
-  </si>
-  <si>
-    <t>Jan-27-2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import right modules, and correct code </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
+      <sz val="10.000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12.000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color indexed="56"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -208,66 +188,65 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -279,7 +258,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -322,16 +301,16 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -354,19 +333,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -389,7 +367,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,470 +541,675 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="21.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="17.5546875" style="3"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="6.109375"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="14.44140625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="14.44140625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="42.109375"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="16"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="12.5546875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="15.5546875"/>
+    <col customWidth="1" min="8" max="10" style="1" width="21.88671875"/>
+    <col customWidth="1" min="11" max="11" style="1" width="16.88671875"/>
+    <col min="12" max="16384" style="1" width="17.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" ht="33">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" ht="28.5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" ht="28.5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" ht="28.5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" ht="28.5">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" ht="42.75">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="8"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" ht="14.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" ht="14.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="8"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+    <row r="13" ht="14.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+    <row r="14" ht="14.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="8"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+    <row r="15" ht="14.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+    <row r="16" ht="14.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="8"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+    <row r="17" ht="14.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="8"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+    <row r="18" ht="14.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="8"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+    <row r="19" ht="14.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+    <row r="20" ht="14.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="8"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" ht="14.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1041,7 +1223,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" ht="14.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1055,7 +1237,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" ht="14.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1069,7 +1251,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" ht="14.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1083,7 +1265,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" ht="14.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1097,7 +1279,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" ht="14.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1111,7 +1293,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" ht="14.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1126,70 +1308,67 @@
       <c r="L27" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1" disablePrompts="0">
+    <dataValidation sqref="G:G" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>Sheet2!$A$1:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="200" verticalDpi="200" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.199999999999999"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,9 +1423,7 @@
         <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
         <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
           <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
+            <xsd:documentation>This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.</xsd:documentation>
           </xsd:annotation>
         </xsd:element>
         <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1325,19 +1502,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B149665-BEBB-4C97-BAA6-72374EAA67F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D196DE-5AC8-4D3B-8CD7-1A2AE6EEDD72}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1356,14 +1529,17 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D196DE-5AC8-4D3B-8CD7-1A2AE6EEDD72}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B149665-BEBB-4C97-BAA6-72374EAA67F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>